--- a/src/Биохимический анализ крови.xlsx
+++ b/src/Биохимический анализ крови.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Пациент</t>
   </si>
@@ -31,13 +31,28 @@
   </si>
   <si>
     <t>Мочевина</t>
+  </si>
+  <si>
+    <t>РЕЗУЛЬТАТЫ БИОХИМИЧЕСКОГО АНАЛИЗА КРОВИ</t>
+  </si>
+  <si>
+    <t>Дата: 30.02.2021</t>
+  </si>
+  <si>
+    <t>Лаборант:</t>
+  </si>
+  <si>
+    <t>Смирнов С.С.</t>
+  </si>
+  <si>
+    <t>№</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +62,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -83,6 +107,12 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -364,176 +394,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.88671875" style="2"/>
     <col min="4" max="4" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
         <v>223</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C6" s="3">
         <v>66.540000000000006</v>
       </c>
-      <c r="C2" s="3">
-        <v>4.8449999999999998</v>
-      </c>
-      <c r="D2" s="3">
-        <v>6.0399000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="D6" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
         <v>229</v>
       </c>
-      <c r="B3" s="3">
-        <v>63.540000000000006</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3.9990000000000001</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5.9931000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="C7" s="3">
+        <v>63.54</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
         <v>230</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C8" s="3">
         <v>70.36</v>
       </c>
-      <c r="C4" s="3">
-        <v>4.0840000000000005</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5.9307999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="D8" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
         <v>231</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C9" s="3">
         <v>70.150000000000006</v>
       </c>
-      <c r="C5" s="3">
-        <v>4.6680000000000001</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5.9172000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="D9" s="3">
+        <v>4.67</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
         <v>232</v>
       </c>
-      <c r="B6" s="3">
-        <v>66.13000000000001</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4.7940000000000005</v>
-      </c>
-      <c r="D6" s="3">
-        <v>6.0331999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="C10" s="3">
+        <v>66.13</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4.79</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
         <v>233</v>
       </c>
-      <c r="B7" s="3">
-        <v>71.990000000000009</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4.3780000000000001</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5.9398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="C11" s="3">
+        <v>71.989999999999995</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.38</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
         <v>234</v>
       </c>
-      <c r="B8" s="3">
-        <v>74.570000000000007</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4.2140000000000004</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5.9871999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="C12" s="3">
+        <v>74.569999999999993</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4.21</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
         <v>235</v>
       </c>
-      <c r="B9" s="3">
-        <v>62.620000000000005</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5.1850000000000005</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6.0018000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="C13" s="3">
+        <v>62.62</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5.19</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
         <v>500</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C14" s="3">
         <v>71.2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D14" s="3">
         <v>6.11</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E14" s="3">
         <v>2.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
         <v>501</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C15" s="3">
         <v>69.900000000000006</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D15" s="3">
         <v>4.95</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E15" s="3">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D11">
-    <sortCondition descending="1" ref="A1"/>
+  <sortState ref="B6:E15">
+    <sortCondition descending="1" ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>